--- a/Database Implementation/Test Data Generator - Mary.xlsx
+++ b/Database Implementation/Test Data Generator - Mary.xlsx
@@ -10,14 +10,14 @@
     <sheet name="user_profile" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">user_profile!$A$1:$M$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">user_profile!$A$1:$M$59</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>password_hash</t>
   </si>
@@ -25,7 +25,7 @@
     <t>first_name</t>
   </si>
   <si>
-    <t>sur_name</t>
+    <t>surname</t>
   </si>
   <si>
     <t>email</t>
@@ -55,10 +55,13 @@
     <t>is_administrator</t>
   </si>
   <si>
+    <t>welcomE01#</t>
+  </si>
+  <si>
     <t>Adrian</t>
   </si>
   <si>
-    <t>O'Sullivan</t>
+    <t>O''Sullivan</t>
   </si>
   <si>
     <t>16230124@ul.ie</t>
@@ -67,6 +70,9 @@
     <t>1990-01-01</t>
   </si>
   <si>
+    <t>welcomE02#</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -79,250 +85,415 @@
     <t>2000-01-01</t>
   </si>
   <si>
+    <t>welcomE03#</t>
+  </si>
+  <si>
     <t>Gavin</t>
   </si>
   <si>
     <t>Hunter</t>
   </si>
   <si>
+    <t>welcomE04#</t>
+  </si>
+  <si>
     <t>Carol</t>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
+    <t>welcomE05#</t>
+  </si>
+  <si>
     <t>Yvonne</t>
   </si>
   <si>
     <t>Edmunds</t>
   </si>
   <si>
+    <t>welcomE06#</t>
+  </si>
+  <si>
     <t>Max</t>
   </si>
   <si>
     <t>Glover</t>
   </si>
   <si>
+    <t>welcomE07#</t>
+  </si>
+  <si>
     <t>Dan</t>
   </si>
   <si>
     <t>King</t>
   </si>
   <si>
+    <t>welcomE08#</t>
+  </si>
+  <si>
     <t>Carolyn</t>
   </si>
   <si>
     <t>Thomson</t>
   </si>
   <si>
+    <t>welcomE09#</t>
+  </si>
+  <si>
     <t>Angela</t>
   </si>
   <si>
     <t>Martin</t>
   </si>
   <si>
+    <t>welcomE10#</t>
+  </si>
+  <si>
     <t>Melanie</t>
   </si>
   <si>
     <t>Slater</t>
   </si>
   <si>
+    <t>welcomE11#</t>
+  </si>
+  <si>
     <t>Jennifer</t>
   </si>
   <si>
     <t>Langdon</t>
   </si>
   <si>
+    <t>welcomE12#</t>
+  </si>
+  <si>
     <t>Paul</t>
   </si>
   <si>
     <t>Alsop</t>
   </si>
   <si>
+    <t>welcomE13#</t>
+  </si>
+  <si>
     <t>Owen</t>
   </si>
   <si>
     <t>Wilkins</t>
   </si>
   <si>
+    <t>welcomE14#</t>
+  </si>
+  <si>
     <t>Ella</t>
   </si>
   <si>
     <t>Taylor</t>
   </si>
   <si>
+    <t>welcomE15#</t>
+  </si>
+  <si>
     <t>Amanda</t>
   </si>
   <si>
     <t>Young</t>
   </si>
   <si>
+    <t>welcomE16#</t>
+  </si>
+  <si>
     <t>Abigail</t>
   </si>
   <si>
     <t>Mackay</t>
   </si>
   <si>
+    <t>welcomE17#</t>
+  </si>
+  <si>
     <t>Lily</t>
   </si>
   <si>
     <t>Avery</t>
   </si>
   <si>
+    <t>welcomE18#</t>
+  </si>
+  <si>
     <t>Madeleine</t>
   </si>
   <si>
     <t>Wilson</t>
   </si>
   <si>
+    <t>welcomE19#</t>
+  </si>
+  <si>
     <t>Carl</t>
   </si>
   <si>
     <t>Stewart</t>
   </si>
   <si>
+    <t>welcomE20#</t>
+  </si>
+  <si>
     <t>Faith</t>
   </si>
   <si>
+    <t>welcomE21#</t>
+  </si>
+  <si>
     <t>Lisa</t>
   </si>
   <si>
     <t>Sharp</t>
   </si>
   <si>
+    <t>welcomE22#</t>
+  </si>
+  <si>
     <t>Lucas</t>
   </si>
   <si>
     <t>Short</t>
   </si>
   <si>
+    <t>welcomE23#</t>
+  </si>
+  <si>
     <t>Una</t>
   </si>
   <si>
     <t>Nash</t>
   </si>
   <si>
+    <t>welcomE24#</t>
+  </si>
+  <si>
     <t>Jacob</t>
   </si>
   <si>
     <t>Newman</t>
   </si>
   <si>
+    <t>welcomE25#</t>
+  </si>
+  <si>
     <t>Dorothy</t>
   </si>
   <si>
     <t>Mathis</t>
   </si>
   <si>
+    <t>welcomE26#</t>
+  </si>
+  <si>
     <t>Irene</t>
   </si>
   <si>
     <t>Hemmings</t>
   </si>
   <si>
+    <t>welcomE27#</t>
+  </si>
+  <si>
     <t>Caroline</t>
   </si>
   <si>
     <t>Davies</t>
   </si>
   <si>
+    <t>welcomE28#</t>
+  </si>
+  <si>
     <t>Phil</t>
   </si>
   <si>
+    <t>welcomE29#</t>
+  </si>
+  <si>
     <t>Hughes</t>
   </si>
   <si>
+    <t>welcomE30#</t>
+  </si>
+  <si>
     <t>Samantha</t>
   </si>
   <si>
     <t>Ferguson</t>
   </si>
   <si>
+    <t>welcomE31#</t>
+  </si>
+  <si>
     <t>Warren</t>
   </si>
   <si>
     <t>Rutherford</t>
   </si>
   <si>
+    <t>welcomE32#</t>
+  </si>
+  <si>
     <t>Elizabeth</t>
   </si>
   <si>
     <t>Lewis</t>
   </si>
   <si>
+    <t>welcomE33#</t>
+  </si>
+  <si>
     <t>Jane</t>
   </si>
   <si>
+    <t>welcomE34#</t>
+  </si>
+  <si>
     <t>Ava</t>
   </si>
   <si>
     <t>Pullman</t>
   </si>
   <si>
+    <t>welcomE35#</t>
+  </si>
+  <si>
     <t>Vanessa</t>
   </si>
   <si>
     <t>Campbell</t>
   </si>
   <si>
+    <t>welcomE36#</t>
+  </si>
+  <si>
     <t>Diane</t>
   </si>
   <si>
     <t>Henderson</t>
   </si>
   <si>
+    <t>welcomE37#</t>
+  </si>
+  <si>
     <t>Duncan</t>
   </si>
   <si>
+    <t>welcomE38#</t>
+  </si>
+  <si>
     <t>Diana</t>
   </si>
   <si>
+    <t>welcomE39#</t>
+  </si>
+  <si>
+    <t>welcomE40#</t>
+  </si>
+  <si>
     <t>Jessica</t>
   </si>
   <si>
     <t>Walsh</t>
   </si>
   <si>
+    <t>welcomE41#</t>
+  </si>
+  <si>
     <t>Terry</t>
   </si>
   <si>
+    <t>welcomE42#</t>
+  </si>
+  <si>
     <t>Robert</t>
   </si>
   <si>
+    <t>welcomE43#</t>
+  </si>
+  <si>
     <t>Bella</t>
   </si>
   <si>
+    <t>welcomE44#</t>
+  </si>
+  <si>
     <t>Penelope</t>
   </si>
   <si>
+    <t>welcomE45#</t>
+  </si>
+  <si>
     <t>Hart</t>
   </si>
   <si>
+    <t>welcomE46#</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
     <t>Randall</t>
   </si>
   <si>
+    <t>welcomE47#</t>
+  </si>
+  <si>
     <t>Gabrielle</t>
   </si>
   <si>
+    <t>welcomE48#</t>
+  </si>
+  <si>
     <t>Anderson</t>
   </si>
   <si>
+    <t>welcomE49#</t>
+  </si>
+  <si>
     <t>Jan</t>
   </si>
   <si>
     <t>Buckland</t>
   </si>
   <si>
+    <t>welcomE50#</t>
+  </si>
+  <si>
+    <t>welcomE51#</t>
+  </si>
+  <si>
     <t>Emma</t>
   </si>
   <si>
     <t>White</t>
   </si>
   <si>
+    <t>welcomE52#</t>
+  </si>
+  <si>
     <t>Paige</t>
+  </si>
+  <si>
+    <t>welcomE53#</t>
+  </si>
+  <si>
+    <t>welcomE54#</t>
+  </si>
+  <si>
+    <t>welcomE55#</t>
+  </si>
+  <si>
+    <t>welcomE56#</t>
+  </si>
+  <si>
+    <t>welcomE57#</t>
   </si>
   <si>
     <t>https://homepage.net/name_generator/</t>
@@ -333,12 +504,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,17 +541,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,7 +564,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -413,23 +608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,26 +623,11 @@
       <scheme val="major"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,17 +646,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -511,13 +675,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,25 +741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,13 +759,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,97 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,12 +856,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +889,17 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,38 +951,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,69 +972,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1231,8 +1395,8 @@
   <sheetPr/>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L45" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1247,9 +1411,8 @@
     <col min="8" max="8" width="20.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="22.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="20.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="13.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="13.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="162" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="169" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.75" spans="1:13">
@@ -1290,23 +1453,25 @@
         <v>11</v>
       </c>
       <c r="M1" s="7" t="str">
-        <f>"insert into user_profile ("&amp;$A$1&amp;","&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$K$1&amp;","&amp;$L$1&amp;") values  ('"&amp;A1&amp;"','"&amp;B1&amp;"','"&amp;C1&amp;"','"&amp;D1&amp;"','"&amp;E1&amp;"','"&amp;F1&amp;"','"&amp;G1&amp;"','"&amp;H1&amp;"','"&amp;I1&amp;"','"&amp;K1&amp;"',"&amp;L1&amp;");"</f>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('password_hash','first_name','sur_name','email','date_of_birth','gender_id','gender_preference_id','black_listed_user','black_listed_reason','user_status_id',is_administrator);</v>
-      </c>
-    </row>
-    <row r="2" ht="45" spans="1:13">
-      <c r="A2" s="3"/>
+        <f>"insert into user_profile ("&amp;$A$1&amp;","&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$K$1&amp;","&amp;$L$1&amp;") values  (sha2('"&amp;A1&amp;"',256),'"&amp;B1&amp;"','"&amp;C1&amp;"','"&amp;D1&amp;"','"&amp;E1&amp;"','"&amp;F1&amp;"','"&amp;G1&amp;"','"&amp;H1&amp;"','"&amp;I1&amp;"','"&amp;K1&amp;"',"&amp;L1&amp;");"</f>
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('password_hash',256),'first_name','surname','email','date_of_birth','gender_id','gender_preference_id','black_listed_user','black_listed_reason','user_status_id',is_administrator);</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1327,22 +1492,25 @@
         <v>1</v>
       </c>
       <c r="M2" s="7" t="str">
-        <f>"insert into user_profile ("&amp;$A$1&amp;","&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$K$1&amp;","&amp;$L$1&amp;") values  ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;K2&amp;"',"&amp;L2&amp;");"</f>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Adrian','O'Sullivan','16230124@ul.ie','1990-01-01','1','1','0','','1',1);</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="2:13">
+        <f>"insert into user_profile ("&amp;$A$1&amp;","&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$K$1&amp;","&amp;$L$1&amp;") values  (sha2('"&amp;A2&amp;"',256),'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;K2&amp;"',"&amp;L2&amp;");"</f>
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE01#',256),'Adrian','O''Sullivan','16230124@ul.ie','1990-01-01','1','1','0','','1',1);</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1361,23 +1529,26 @@
         <v>0</v>
       </c>
       <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M34" si="1">"insert into user_profile ("&amp;$A$1&amp;","&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$K$1&amp;","&amp;$L$1&amp;") values  ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;K3&amp;"',"&amp;L3&amp;");"</f>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','John','Doe','john.doe@gmail.com','2000-01-01','1','1','0','','2',0);</v>
-      </c>
-    </row>
-    <row r="4" ht="45" spans="2:13">
+        <f t="shared" ref="M3:M34" si="1">"insert into user_profile ("&amp;$A$1&amp;","&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$K$1&amp;","&amp;$L$1&amp;") values  (sha2('"&amp;A3&amp;"',256),'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;K3&amp;"',"&amp;L3&amp;");"</f>
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE02#',256),'John','Doe','john.doe@gmail.com','2000-01-01','1','1','0','','2',0);</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="str">
         <f>B4&amp;"."&amp;C4&amp;"@gmail.com"</f>
         <v>Gavin.Hunter@gmail.com</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1397,22 +1568,25 @@
       </c>
       <c r="M4" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Gavin','Hunter','Gavin.Hunter@gmail.com','1990-01-01','1','1','0','','3',0);</v>
-      </c>
-    </row>
-    <row r="5" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE03#',256),'Gavin','Hunter','Gavin.Hunter@gmail.com','1990-01-01','1','1','0','','3',0);</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D53" si="2">B5&amp;"."&amp;C5&amp;"@gmail.com"</f>
         <v>Carol.James@gmail.com</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1432,22 +1606,25 @@
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Carol','James','Carol.James@gmail.com','1990-01-01','2','2','0','','4',0);</v>
-      </c>
-    </row>
-    <row r="6" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE04#',256),'Carol','James','Carol.James@gmail.com','1990-01-01','2','2','0','','4',0);</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
         <v>Yvonne.Edmunds@gmail.com</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1467,22 +1644,25 @@
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Yvonne','Edmunds','Yvonne.Edmunds@gmail.com','1990-01-01','2','2','0','','5',0);</v>
-      </c>
-    </row>
-    <row r="7" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE05#',256),'Yvonne','Edmunds','Yvonne.Edmunds@gmail.com','1990-01-01','2','2','0','','5',0);</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
         <v>Max.Glover@gmail.com</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1502,22 +1682,25 @@
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Max','Glover','Max.Glover@gmail.com','1990-01-01','1','1','0','','6',0);</v>
-      </c>
-    </row>
-    <row r="8" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE06#',256),'Max','Glover','Max.Glover@gmail.com','1990-01-01','1','1','0','','6',0);</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
         <v>Dan.King@gmail.com</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1537,22 +1720,25 @@
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Dan','King','Dan.King@gmail.com','1990-01-01','1','1','0','','7',0);</v>
-      </c>
-    </row>
-    <row r="9" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE07#',256),'Dan','King','Dan.King@gmail.com','1990-01-01','1','1','0','','7',0);</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
         <v>Carolyn.Thomson@gmail.com</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1572,22 +1758,25 @@
       </c>
       <c r="M9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Carolyn','Thomson','Carolyn.Thomson@gmail.com','1990-01-01','2','2','0','','8',0);</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE08#',256),'Carolyn','Thomson','Carolyn.Thomson@gmail.com','1990-01-01','2','2','0','','8',0);</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
         <v>Angela.Martin@gmail.com</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1607,22 +1796,25 @@
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Angela','Martin','Angela.Martin@gmail.com','1990-01-01','2','2','0','','9',0);</v>
-      </c>
-    </row>
-    <row r="11" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE09#',256),'Angela','Martin','Angela.Martin@gmail.com','1990-01-01','2','2','0','','9',0);</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
         <v>Melanie.Slater@gmail.com</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1642,22 +1834,25 @@
       </c>
       <c r="M11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Melanie','Slater','Melanie.Slater@gmail.com','1990-01-01','2','2','0','','10',0);</v>
-      </c>
-    </row>
-    <row r="12" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE10#',256),'Melanie','Slater','Melanie.Slater@gmail.com','1990-01-01','2','2','0','','10',0);</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
         <v>Jennifer.Langdon@gmail.com</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1677,22 +1872,25 @@
       </c>
       <c r="M12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Jennifer','Langdon','Jennifer.Langdon@gmail.com','1990-01-01','2','2','0','','11',0);</v>
-      </c>
-    </row>
-    <row r="13" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE11#',256),'Jennifer','Langdon','Jennifer.Langdon@gmail.com','1990-01-01','2','2','0','','11',0);</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
         <v>Paul.Alsop@gmail.com</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1712,22 +1910,25 @@
       </c>
       <c r="M13" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Paul','Alsop','Paul.Alsop@gmail.com','1990-01-01','1','1','0','','12',0);</v>
-      </c>
-    </row>
-    <row r="14" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE12#',256),'Paul','Alsop','Paul.Alsop@gmail.com','1990-01-01','1','1','0','','12',0);</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
         <v>Owen.Wilkins@gmail.com</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1747,22 +1948,25 @@
       </c>
       <c r="M14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Owen','Wilkins','Owen.Wilkins@gmail.com','1990-01-01','1','1','0','','13',0);</v>
-      </c>
-    </row>
-    <row r="15" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE13#',256),'Owen','Wilkins','Owen.Wilkins@gmail.com','1990-01-01','1','1','0','','13',0);</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v>Ella.Taylor@gmail.com</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1782,22 +1986,25 @@
       </c>
       <c r="M15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Ella','Taylor','Ella.Taylor@gmail.com','1990-01-01','2','2','0','','14',0);</v>
-      </c>
-    </row>
-    <row r="16" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE14#',256),'Ella','Taylor','Ella.Taylor@gmail.com','1990-01-01','2','2','0','','14',0);</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
         <v>Amanda.Young@gmail.com</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1817,22 +2024,25 @@
       </c>
       <c r="M16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Amanda','Young','Amanda.Young@gmail.com','1990-01-01','2','2','0','','15',0);</v>
-      </c>
-    </row>
-    <row r="17" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE15#',256),'Amanda','Young','Amanda.Young@gmail.com','1990-01-01','2','2','0','','15',0);</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
         <v>Abigail.Mackay@gmail.com</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1852,22 +2062,25 @@
       </c>
       <c r="M17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Abigail','Mackay','Abigail.Mackay@gmail.com','1990-01-01','2','2','0','','16',0);</v>
-      </c>
-    </row>
-    <row r="18" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE16#',256),'Abigail','Mackay','Abigail.Mackay@gmail.com','1990-01-01','2','2','0','','16',0);</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:13">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
         <v>Lily.Avery@gmail.com</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1887,22 +2100,25 @@
       </c>
       <c r="M18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Lily','Avery','Lily.Avery@gmail.com','1990-01-01','2','2','0','','17',0);</v>
-      </c>
-    </row>
-    <row r="19" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE17#',256),'Lily','Avery','Lily.Avery@gmail.com','1990-01-01','2','2','0','','17',0);</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
         <v>Madeleine.Wilson@gmail.com</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1922,22 +2138,25 @@
       </c>
       <c r="M19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Madeleine','Wilson','Madeleine.Wilson@gmail.com','1990-01-01','2','2','0','','18',0);</v>
-      </c>
-    </row>
-    <row r="20" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE18#',256),'Madeleine','Wilson','Madeleine.Wilson@gmail.com','1990-01-01','2','2','0','','18',0);</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
         <v>Carl.Stewart@gmail.com</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1957,22 +2176,25 @@
       </c>
       <c r="M20" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Carl','Stewart','Carl.Stewart@gmail.com','1990-01-01','1','1','0','','19',0);</v>
-      </c>
-    </row>
-    <row r="21" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE19#',256),'Carl','Stewart','Carl.Stewart@gmail.com','1990-01-01','1','1','0','','19',0);</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
         <v>Faith.James@gmail.com</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1992,22 +2214,25 @@
       </c>
       <c r="M21" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Faith','James','Faith.James@gmail.com','1990-01-01','2','2','0','','20',0);</v>
-      </c>
-    </row>
-    <row r="22" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE20#',256),'Faith','James','Faith.James@gmail.com','1990-01-01','2','2','0','','20',0);</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
         <v>Lisa.Sharp@gmail.com</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -2027,22 +2252,25 @@
       </c>
       <c r="M22" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Lisa','Sharp','Lisa.Sharp@gmail.com','1990-01-01','2','2','0','','21',0);</v>
-      </c>
-    </row>
-    <row r="23" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE21#',256),'Lisa','Sharp','Lisa.Sharp@gmail.com','1990-01-01','2','2','0','','21',0);</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
         <v>Lucas.Short@gmail.com</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2062,22 +2290,25 @@
       </c>
       <c r="M23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Lucas','Short','Lucas.Short@gmail.com','1990-01-01','1','1','0','','22',0);</v>
-      </c>
-    </row>
-    <row r="24" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE22#',256),'Lucas','Short','Lucas.Short@gmail.com','1990-01-01','1','1','0','','22',0);</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
         <v>Una.Nash@gmail.com</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -2097,22 +2328,25 @@
       </c>
       <c r="M24" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Una','Nash','Una.Nash@gmail.com','1990-01-01','2','2','0','','23',0);</v>
-      </c>
-    </row>
-    <row r="25" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE23#',256),'Una','Nash','Una.Nash@gmail.com','1990-01-01','2','2','0','','23',0);</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
         <v>Jacob.Newman@gmail.com</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2132,22 +2366,25 @@
       </c>
       <c r="M25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Jacob','Newman','Jacob.Newman@gmail.com','1990-01-01','1','1','0','','24',0);</v>
-      </c>
-    </row>
-    <row r="26" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE24#',256),'Jacob','Newman','Jacob.Newman@gmail.com','1990-01-01','1','1','0','','24',0);</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
         <v>Dorothy.Mathis@gmail.com</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2167,22 +2404,25 @@
       </c>
       <c r="M26" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Dorothy','Mathis','Dorothy.Mathis@gmail.com','1990-01-01','2','2','0','','25',0);</v>
-      </c>
-    </row>
-    <row r="27" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE25#',256),'Dorothy','Mathis','Dorothy.Mathis@gmail.com','1990-01-01','2','2','0','','25',0);</v>
+      </c>
+    </row>
+    <row r="27" ht="30" spans="1:13">
+      <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
         <v>Irene.Hemmings@gmail.com</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2202,22 +2442,25 @@
       </c>
       <c r="M27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Irene','Hemmings','Irene.Hemmings@gmail.com','1990-01-01','2','2','0','','26',0);</v>
-      </c>
-    </row>
-    <row r="28" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE26#',256),'Irene','Hemmings','Irene.Hemmings@gmail.com','1990-01-01','2','2','0','','26',0);</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="1:13">
+      <c r="A28" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
         <v>Caroline.Davies@gmail.com</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -2237,22 +2480,25 @@
       </c>
       <c r="M28" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Caroline','Davies','Caroline.Davies@gmail.com','1990-01-01','2','2','0','','27',0);</v>
-      </c>
-    </row>
-    <row r="29" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE27#',256),'Caroline','Davies','Caroline.Davies@gmail.com','1990-01-01','2','2','0','','27',0);</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="1:13">
+      <c r="A29" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
         <v>Phil.Sharp@gmail.com</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2272,22 +2518,25 @@
       </c>
       <c r="M29" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Phil','Sharp','Phil.Sharp@gmail.com','1990-01-01','1','1','0','','28',0);</v>
-      </c>
-    </row>
-    <row r="30" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE28#',256),'Phil','Sharp','Phil.Sharp@gmail.com','1990-01-01','1','1','0','','28',0);</v>
+      </c>
+    </row>
+    <row r="30" ht="30" spans="1:13">
+      <c r="A30" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
         <v>Ella.Hughes@gmail.com</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2307,22 +2556,25 @@
       </c>
       <c r="M30" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Ella','Hughes','Ella.Hughes@gmail.com','1990-01-01','2','2','0','','29',0);</v>
-      </c>
-    </row>
-    <row r="31" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE29#',256),'Ella','Hughes','Ella.Hughes@gmail.com','1990-01-01','2','2','0','','29',0);</v>
+      </c>
+    </row>
+    <row r="31" ht="30" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
         <v>Samantha.Ferguson@gmail.com</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2342,22 +2594,25 @@
       </c>
       <c r="M31" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Samantha','Ferguson','Samantha.Ferguson@gmail.com','1990-01-01','2','2','0','','30',0);</v>
-      </c>
-    </row>
-    <row r="32" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE30#',256),'Samantha','Ferguson','Samantha.Ferguson@gmail.com','1990-01-01','2','2','0','','30',0);</v>
+      </c>
+    </row>
+    <row r="32" ht="30" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
         <v>Warren.Rutherford@gmail.com</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2377,22 +2632,25 @@
       </c>
       <c r="M32" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Warren','Rutherford','Warren.Rutherford@gmail.com','1990-01-01','1','1','0','','31',0);</v>
-      </c>
-    </row>
-    <row r="33" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE31#',256),'Warren','Rutherford','Warren.Rutherford@gmail.com','1990-01-01','1','1','0','','31',0);</v>
+      </c>
+    </row>
+    <row r="33" ht="30" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
         <v>Elizabeth.Lewis@gmail.com</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -2412,22 +2670,25 @@
       </c>
       <c r="M33" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Elizabeth','Lewis','Elizabeth.Lewis@gmail.com','1990-01-01','2','2','0','','32',0);</v>
-      </c>
-    </row>
-    <row r="34" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE32#',256),'Elizabeth','Lewis','Elizabeth.Lewis@gmail.com','1990-01-01','2','2','0','','32',0);</v>
+      </c>
+    </row>
+    <row r="34" ht="30" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
         <v>Jane.Langdon@gmail.com</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -2447,22 +2708,25 @@
       </c>
       <c r="M34" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Jane','Langdon','Jane.Langdon@gmail.com','1990-01-01','2','2','0','','33',0);</v>
-      </c>
-    </row>
-    <row r="35" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE33#',256),'Jane','Langdon','Jane.Langdon@gmail.com','1990-01-01','2','2','0','','33',0);</v>
+      </c>
+    </row>
+    <row r="35" ht="30" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
         <v>Ava.Pullman@gmail.com</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2481,23 +2745,26 @@
         <v>0</v>
       </c>
       <c r="M35" s="7" t="str">
-        <f t="shared" ref="M35:M53" si="4">"insert into user_profile ("&amp;$A$1&amp;","&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$K$1&amp;","&amp;$L$1&amp;") values  ('"&amp;A35&amp;"','"&amp;B35&amp;"','"&amp;C35&amp;"','"&amp;D35&amp;"','"&amp;E35&amp;"','"&amp;F35&amp;"','"&amp;G35&amp;"','"&amp;H35&amp;"','"&amp;I35&amp;"','"&amp;K35&amp;"',"&amp;L35&amp;");"</f>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Ava','Pullman','Ava.Pullman@gmail.com','1990-01-01','2','2','0','','34',0);</v>
-      </c>
-    </row>
-    <row r="36" ht="45" spans="2:13">
+        <f t="shared" ref="M35:M53" si="4">"insert into user_profile ("&amp;$A$1&amp;","&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$K$1&amp;","&amp;$L$1&amp;") values  (sha2('"&amp;A35&amp;"',256),'"&amp;B35&amp;"','"&amp;C35&amp;"','"&amp;D35&amp;"','"&amp;E35&amp;"','"&amp;F35&amp;"','"&amp;G35&amp;"','"&amp;H35&amp;"','"&amp;I35&amp;"','"&amp;K35&amp;"',"&amp;L35&amp;");"</f>
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE34#',256),'Ava','Pullman','Ava.Pullman@gmail.com','1990-01-01','2','2','0','','34',0);</v>
+      </c>
+    </row>
+    <row r="36" ht="30" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
         <v>Vanessa.Campbell@gmail.com</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -2517,22 +2784,25 @@
       </c>
       <c r="M36" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Vanessa','Campbell','Vanessa.Campbell@gmail.com','1990-01-01','2','2','0','','35',0);</v>
-      </c>
-    </row>
-    <row r="37" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE35#',256),'Vanessa','Campbell','Vanessa.Campbell@gmail.com','1990-01-01','2','2','0','','35',0);</v>
+      </c>
+    </row>
+    <row r="37" ht="30" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
         <v>Diane.Henderson@gmail.com</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -2552,22 +2822,25 @@
       </c>
       <c r="M37" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Diane','Henderson','Diane.Henderson@gmail.com','1990-01-01','2','2','0','','36',0);</v>
-      </c>
-    </row>
-    <row r="38" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE36#',256),'Diane','Henderson','Diane.Henderson@gmail.com','1990-01-01','2','2','0','','36',0);</v>
+      </c>
+    </row>
+    <row r="38" ht="30" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
         <v>Madeleine.Duncan@gmail.com</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2587,22 +2860,25 @@
       </c>
       <c r="M38" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Madeleine','Duncan','Madeleine.Duncan@gmail.com','1990-01-01','2','2','0','','37',0);</v>
-      </c>
-    </row>
-    <row r="39" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE37#',256),'Madeleine','Duncan','Madeleine.Duncan@gmail.com','1990-01-01','2','2','0','','37',0);</v>
+      </c>
+    </row>
+    <row r="39" ht="30" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
         <v>Diana.Mackay@gmail.com</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -2622,22 +2898,25 @@
       </c>
       <c r="M39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Diana','Mackay','Diana.Mackay@gmail.com','1990-01-01','2','2','0','','38',0);</v>
-      </c>
-    </row>
-    <row r="40" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE38#',256),'Diana','Mackay','Diana.Mackay@gmail.com','1990-01-01','2','2','0','','38',0);</v>
+      </c>
+    </row>
+    <row r="40" ht="30" spans="1:13">
+      <c r="A40" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
         <v>Una.Rutherford@gmail.com</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2657,22 +2936,25 @@
       </c>
       <c r="M40" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Una','Rutherford','Una.Rutherford@gmail.com','1990-01-01','2','2','0','','39',0);</v>
-      </c>
-    </row>
-    <row r="41" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE39#',256),'Una','Rutherford','Una.Rutherford@gmail.com','1990-01-01','2','2','0','','39',0);</v>
+      </c>
+    </row>
+    <row r="41" ht="30" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
         <v>Jessica.Walsh@gmail.com</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2692,22 +2974,25 @@
       </c>
       <c r="M41" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Jessica','Walsh','Jessica.Walsh@gmail.com','1990-01-01','2','2','0','','40',0);</v>
-      </c>
-    </row>
-    <row r="42" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE40#',256),'Jessica','Walsh','Jessica.Walsh@gmail.com','1990-01-01','2','2','0','','40',0);</v>
+      </c>
+    </row>
+    <row r="42" ht="30" spans="1:13">
+      <c r="A42" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
         <v>Ella.Terry@gmail.com</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2727,22 +3012,25 @@
       </c>
       <c r="M42" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Ella','Terry','Ella.Terry@gmail.com','1990-01-01','2','2','0','','41',0);</v>
-      </c>
-    </row>
-    <row r="43" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE41#',256),'Ella','Terry','Ella.Terry@gmail.com','1990-01-01','2','2','0','','41',0);</v>
+      </c>
+    </row>
+    <row r="43" ht="30" spans="1:13">
+      <c r="A43" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
         <v>Robert.Wilkins@gmail.com</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2762,22 +3050,25 @@
       </c>
       <c r="M43" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Robert','Wilkins','Robert.Wilkins@gmail.com','1990-01-01','1','1','0','','42',0);</v>
-      </c>
-    </row>
-    <row r="44" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE42#',256),'Robert','Wilkins','Robert.Wilkins@gmail.com','1990-01-01','1','1','0','','42',0);</v>
+      </c>
+    </row>
+    <row r="44" ht="30" spans="1:13">
+      <c r="A44" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
         <v>Bella.Walsh@gmail.com</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -2797,22 +3088,25 @@
       </c>
       <c r="M44" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Bella','Walsh','Bella.Walsh@gmail.com','1990-01-01','2','2','0','','43',0);</v>
-      </c>
-    </row>
-    <row r="45" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE43#',256),'Bella','Walsh','Bella.Walsh@gmail.com','1990-01-01','2','2','0','','43',0);</v>
+      </c>
+    </row>
+    <row r="45" ht="30" spans="1:13">
+      <c r="A45" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
         <v>Penelope.Mackay@gmail.com</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -2832,22 +3126,25 @@
       </c>
       <c r="M45" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Penelope','Mackay','Penelope.Mackay@gmail.com','1990-01-01','2','2','0','','44',0);</v>
-      </c>
-    </row>
-    <row r="46" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE44#',256),'Penelope','Mackay','Penelope.Mackay@gmail.com','1990-01-01','2','2','0','','44',0);</v>
+      </c>
+    </row>
+    <row r="46" ht="30" spans="1:13">
+      <c r="A46" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
         <v>Amanda.Hart@gmail.com</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -2867,22 +3164,25 @@
       </c>
       <c r="M46" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Amanda','Hart','Amanda.Hart@gmail.com','1990-01-01','2','2','0','','45',0);</v>
-      </c>
-    </row>
-    <row r="47" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE45#',256),'Amanda','Hart','Amanda.Hart@gmail.com','1990-01-01','2','2','0','','45',0);</v>
+      </c>
+    </row>
+    <row r="47" ht="30" spans="1:13">
+      <c r="A47" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
         <v>Virginia.Randall@gmail.com</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -2902,22 +3202,25 @@
       </c>
       <c r="M47" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Virginia','Randall','Virginia.Randall@gmail.com','1990-01-01','2','2','0','','46',0);</v>
-      </c>
-    </row>
-    <row r="48" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE46#',256),'Virginia','Randall','Virginia.Randall@gmail.com','1990-01-01','2','2','0','','46',0);</v>
+      </c>
+    </row>
+    <row r="48" ht="30" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
         <v>Gabrielle.Edmunds@gmail.com</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -2937,22 +3240,25 @@
       </c>
       <c r="M48" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Gabrielle','Edmunds','Gabrielle.Edmunds@gmail.com','1990-01-01','2','2','0','','47',0);</v>
-      </c>
-    </row>
-    <row r="49" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE47#',256),'Gabrielle','Edmunds','Gabrielle.Edmunds@gmail.com','1990-01-01','2','2','0','','47',0);</v>
+      </c>
+    </row>
+    <row r="49" ht="30" spans="1:13">
+      <c r="A49" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
         <v>Jessica.Anderson@gmail.com</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -2972,22 +3278,25 @@
       </c>
       <c r="M49" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Jessica','Anderson','Jessica.Anderson@gmail.com','1990-01-01','2','2','0','','48',0);</v>
-      </c>
-    </row>
-    <row r="50" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE48#',256),'Jessica','Anderson','Jessica.Anderson@gmail.com','1990-01-01','2','2','0','','48',0);</v>
+      </c>
+    </row>
+    <row r="50" ht="30" spans="1:13">
+      <c r="A50" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
         <v>Jan.Buckland@gmail.com</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3007,22 +3316,25 @@
       </c>
       <c r="M50" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Jan','Buckland','Jan.Buckland@gmail.com','1990-01-01','1','1','0','','49',0);</v>
-      </c>
-    </row>
-    <row r="51" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE49#',256),'Jan','Buckland','Jan.Buckland@gmail.com','1990-01-01','1','1','0','','49',0);</v>
+      </c>
+    </row>
+    <row r="51" ht="30" spans="1:13">
+      <c r="A51" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
         <v>Stewart.James@gmail.com</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3042,22 +3354,25 @@
       </c>
       <c r="M51" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Stewart','James','Stewart.James@gmail.com','1990-01-01','1','1','0','','50',0);</v>
-      </c>
-    </row>
-    <row r="52" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE50#',256),'Stewart','James','Stewart.James@gmail.com','1990-01-01','1','1','0','','50',0);</v>
+      </c>
+    </row>
+    <row r="52" ht="30" spans="1:13">
+      <c r="A52" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
         <v>Emma.White@gmail.com</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -3077,22 +3392,25 @@
       </c>
       <c r="M52" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Emma','White','Emma.White@gmail.com','1990-01-01','2','2','0','','51',0);</v>
-      </c>
-    </row>
-    <row r="53" ht="45" spans="2:13">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE51#',256),'Emma','White','Emma.White@gmail.com','1990-01-01','2','2','0','','51',0);</v>
+      </c>
+    </row>
+    <row r="53" ht="30" spans="1:13">
+      <c r="A53" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
         <v>Lily.Paige@gmail.com</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -3112,44 +3430,59 @@
       </c>
       <c r="M53" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into user_profile (password_hash,first_name,sur_name,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  ('','Lily','Paige','Lily.Paige@gmail.com','1990-01-01','2','2','0','','52',0);</v>
-      </c>
-    </row>
-    <row r="54" spans="12:12">
+        <v>insert into user_profile (password_hash,first_name,surname,email,date_of_birth,gender_id,gender_preference_id,black_listed_user,black_listed_reason,user_status_id,is_administrator) values  (sha2('welcomE52#',256),'Lily','Paige','Lily.Paige@gmail.com','1990-01-01','2','2','0','','52',0);</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" spans="1:12">
+      <c r="A54" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="L54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="12:12">
+    <row r="55" ht="18.75" spans="1:12">
+      <c r="A55" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="L55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="12:12">
+    <row r="56" ht="18.75" spans="1:12">
+      <c r="A56" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="L56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="12:12">
+    <row r="57" ht="18.75" spans="1:12">
+      <c r="A57" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="L57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="12:12">
+    <row r="58" ht="18.75" spans="1:12">
+      <c r="A58" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M53">
+  <autoFilter ref="A1:M59">
     <extLst/>
   </autoFilter>
   <hyperlinks>
